--- a/Docs/Business Unit Test.xlsx
+++ b/Docs/Business Unit Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Module</t>
   </si>
@@ -99,10 +99,70 @@
     <t>SearchCoursesByEndTime</t>
   </si>
   <si>
-    <t>GetCourseStartTime</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>DeleteCourse</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>DeleteStudentCourse</t>
+  </si>
+  <si>
+    <t>DeleteStudent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete </t>
+  </si>
+  <si>
+    <t>UpdateStudent</t>
+  </si>
+  <si>
+    <t>GetSystemUser</t>
+  </si>
+  <si>
+    <t>DeleteSystemUser</t>
+  </si>
+  <si>
+    <t>GetAllUsers</t>
+  </si>
+  <si>
+    <t>AddTime</t>
+  </si>
+  <si>
+    <t>SearchBothNameDay</t>
+  </si>
+  <si>
+    <t>SearchBothNamestart</t>
+  </si>
+  <si>
+    <t>SearchBothNameEnd</t>
+  </si>
+  <si>
+    <t>SearchNameDayStart</t>
+  </si>
+  <si>
+    <t>SearchNameStartEnd</t>
+  </si>
+  <si>
+    <t>SearchNameDayEnd</t>
+  </si>
+  <si>
+    <t>Searchall</t>
+  </si>
+  <si>
+    <t>SearchBothDayStart</t>
+  </si>
+  <si>
+    <t>SearchBothDayEnd</t>
+  </si>
+  <si>
+    <t>SearchBothStartEnd</t>
+  </si>
+  <si>
+    <t>SearchDayStartEnd</t>
   </si>
 </sst>
 </file>
@@ -170,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -182,6 +242,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -557,28 +620,43 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>41682</v>
+      </c>
+      <c r="G6" s="5">
+        <v>41682</v>
+      </c>
+      <c r="H6" s="5">
+        <v>41683</v>
+      </c>
+    </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -586,18 +664,23 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -605,56 +688,215 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F13" s="4">
+        <v>41682</v>
+      </c>
+      <c r="G13" s="5">
+        <v>41682</v>
+      </c>
+      <c r="H13" s="5">
+        <v>41683</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="4">
-        <v>41680</v>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Business Unit Test.xlsx
+++ b/Docs/Business Unit Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Module</t>
   </si>
@@ -42,127 +42,25 @@
     <t>Closure date</t>
   </si>
   <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>CreateCourse</t>
-  </si>
-  <si>
     <t>close</t>
   </si>
   <si>
-    <t>AddStudentCourse</t>
-  </si>
-  <si>
-    <t>SearchCoursesByName</t>
-  </si>
-  <si>
-    <t>GetAllcourses</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>CreateStudent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SearchStudentsByName</t>
-  </si>
-  <si>
-    <t>SearchStudentsByPhone</t>
-  </si>
-  <si>
-    <t>GetAllStudents</t>
-  </si>
-  <si>
-    <t>SystemUser</t>
-  </si>
-  <si>
-    <t>CreateUser</t>
-  </si>
-  <si>
-    <t>UpdatePassword</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>TimeTable</t>
-  </si>
-  <si>
-    <t>SearchCoursesByDay</t>
-  </si>
-  <si>
-    <t>SearchCoursesByStartTime</t>
-  </si>
-  <si>
-    <t>SearchCoursesByEndTime</t>
-  </si>
-  <si>
     <t>DeleteCourse</t>
   </si>
   <si>
     <t>high</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>DeleteStudentCourse</t>
-  </si>
-  <si>
     <t>DeleteStudent</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete </t>
-  </si>
-  <si>
-    <t>UpdateStudent</t>
-  </si>
-  <si>
-    <t>GetSystemUser</t>
-  </si>
-  <si>
-    <t>DeleteSystemUser</t>
-  </si>
-  <si>
-    <t>GetAllUsers</t>
-  </si>
-  <si>
-    <t>AddTime</t>
-  </si>
-  <si>
-    <t>SearchBothNameDay</t>
-  </si>
-  <si>
-    <t>SearchBothNamestart</t>
-  </si>
-  <si>
-    <t>SearchBothNameEnd</t>
-  </si>
-  <si>
-    <t>SearchNameDayStart</t>
-  </si>
-  <si>
-    <t>SearchNameStartEnd</t>
-  </si>
-  <si>
-    <t>SearchNameDayEnd</t>
-  </si>
-  <si>
-    <t>Searchall</t>
-  </si>
-  <si>
-    <t>SearchBothDayStart</t>
-  </si>
-  <si>
-    <t>SearchBothDayEnd</t>
-  </si>
-  <si>
-    <t>SearchBothStartEnd</t>
-  </si>
-  <si>
-    <t>SearchDayStartEnd</t>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>Aproblem occurred while deleting Course because of foreign key constraint with timetable</t>
+  </si>
+  <si>
+    <t>Aproblem occurred while deleting student because of foreign key constraint with course</t>
   </si>
 </sst>
 </file>
@@ -541,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H38"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
@@ -585,318 +483,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="4">
+        <v>41682</v>
+      </c>
+      <c r="G2" s="5">
+        <v>41682</v>
+      </c>
+      <c r="H2" s="5">
+        <v>41683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>11</v>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
         <v>41682</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G3" s="5">
         <v>41682</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H3" s="5">
         <v>41683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4">
-        <v>41682</v>
-      </c>
-      <c r="G13" s="5">
-        <v>41682</v>
-      </c>
-      <c r="H13" s="5">
-        <v>41683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Business Unit Test.xlsx
+++ b/Docs/Business Unit Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Module</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Aproblem occurred while deleting student because of foreign key constraint with course</t>
+  </si>
+  <si>
+    <t>Add Student Course</t>
+  </si>
+  <si>
+    <t>Check the Credits_Acquired of student not set</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>DeleteStudentCourse</t>
+  </si>
+  <si>
+    <t>Determine which time table of course to minimize the Registered Students</t>
   </si>
 </sst>
 </file>
@@ -439,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,6 +548,58 @@
       </c>
       <c r="H3" s="5">
         <v>41683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
+        <v>41696</v>
+      </c>
+      <c r="G4" s="5">
+        <v>41697</v>
+      </c>
+      <c r="H4" s="5">
+        <v>41697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4">
+        <v>41699</v>
+      </c>
+      <c r="G5" s="5">
+        <v>41699</v>
+      </c>
+      <c r="H5" s="5">
+        <v>41699</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Business Unit Test.xlsx
+++ b/Docs/Business Unit Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Module</t>
   </si>
@@ -72,10 +72,13 @@
     <t>fixed</t>
   </si>
   <si>
-    <t>DeleteStudentCourse</t>
-  </si>
-  <si>
-    <t>Determine which time table of course to minimize the Registered Students</t>
+    <t>CourseTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't determine the time of course that student registered in </t>
+  </si>
+  <si>
+    <t>Notfixed</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,7 +553,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -576,7 +579,7 @@
         <v>41697</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -590,16 +593,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4">
-        <v>41699</v>
-      </c>
-      <c r="G5" s="5">
-        <v>41699</v>
-      </c>
-      <c r="H5" s="5">
-        <v>41699</v>
+        <v>41701</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Business Unit Test.xlsx
+++ b/Docs/Business Unit Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Module</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Closure date</t>
   </si>
   <si>
-    <t>close</t>
-  </si>
-  <si>
     <t>DeleteCourse</t>
   </si>
   <si>
@@ -78,7 +75,10 @@
     <t xml:space="preserve">Can't determine the time of course that student registered in </t>
   </si>
   <si>
-    <t>Notfixed</t>
+    <t>Chech if student has all course prerequisites</t>
+  </si>
+  <si>
+    <t>No.of student AcquiredHours not minimize after adding to new course</t>
   </si>
 </sst>
 </file>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,19 +503,19 @@
     </row>
     <row r="2" spans="1:8" ht="45">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4">
         <v>41682</v>
@@ -529,19 +529,19 @@
     </row>
     <row r="3" spans="1:8" ht="45">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4">
         <v>41682</v>
@@ -555,19 +555,19 @@
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="4">
         <v>41696</v>
@@ -581,22 +581,80 @@
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4">
         <v>41701</v>
+      </c>
+      <c r="G5" s="4">
+        <v>41701</v>
+      </c>
+      <c r="H5" s="4">
+        <v>41701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>41717</v>
+      </c>
+      <c r="G6" s="4">
+        <v>41717</v>
+      </c>
+      <c r="H6" s="4">
+        <v>41717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>41717</v>
+      </c>
+      <c r="G7" s="4">
+        <v>41717</v>
+      </c>
+      <c r="H7" s="4">
+        <v>41717</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Business Unit Test.xlsx
+++ b/Docs/Business Unit Test.xlsx
@@ -78,7 +78,7 @@
     <t>Chech if student has all course prerequisites</t>
   </si>
   <si>
-    <t>No.of student AcquiredHours not minimize after adding to new course</t>
+    <t>No.of student AcquiredHours not increase after adding to new course</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
